--- a/Calculo_cantidad_de_acero.xlsx
+++ b/Calculo_cantidad_de_acero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bibliotecas\Documents\SEMESTRE V\MODELACION\Nuevo proye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bibliotecas\Documents\SEMESTRE V\MODELACION\AA Momentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,27 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>#Momentos</t>
-  </si>
-  <si>
-    <t>f'c</t>
-  </si>
-  <si>
-    <t>fy</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>d'</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>Momento (t.m)</t>
@@ -395,7 +377,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C1" sqref="C1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,47 +389,11 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>COUNT(Tabla1[Momento (t.m)])</f>
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>210</v>
-      </c>
-      <c r="D2">
-        <v>4200</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -482,10 +428,10 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
